--- a/01.doc/06.Test/用例需求分析3.xlsx
+++ b/01.doc/06.Test/用例需求分析3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="10067"/>
+    <workbookView windowWidth="22943" windowHeight="10067" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="登录" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
   <si>
     <t>用户名</t>
   </si>
@@ -207,6 +207,9 @@
     <t>今日打扫</t>
   </si>
   <si>
+    <t>今日订餐名单</t>
+  </si>
+  <si>
     <t>看到订餐情况，总人数以及备注内容（无）</t>
   </si>
   <si>
@@ -220,6 +223,9 @@
   </si>
   <si>
     <t>转到今日打扫界面</t>
+  </si>
+  <si>
+    <t>跳转到今日订餐名单界面，显示今日订餐人员名单</t>
   </si>
   <si>
     <t>订餐总人数</t>
@@ -250,8 +256,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -269,7 +275,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,14 +297,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,30 +312,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,7 +335,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,7 +365,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,13 +404,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -383,30 +412,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,13 +427,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,25 +451,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,13 +475,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,31 +493,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,31 +505,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,19 +535,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,19 +565,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,30 +618,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -656,9 +638,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -680,35 +697,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -720,10 +726,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -732,137 +738,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -874,9 +880,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1199,7 +1202,7 @@
   <sheetPr/>
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
@@ -1238,7 +1241,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" s="4" customFormat="1" spans="1:6">
+    <row r="6" s="1" customFormat="1" spans="1:6">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1258,7 +1261,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" s="4" customFormat="1" spans="1:6">
+    <row r="7" s="1" customFormat="1" spans="1:6">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -1278,7 +1281,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" s="4" customFormat="1" spans="1:6">
+    <row r="8" s="1" customFormat="1" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
@@ -1298,7 +1301,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" s="4" customFormat="1" spans="1:6">
+    <row r="9" s="1" customFormat="1" spans="1:6">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1318,7 +1321,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" spans="1:6">
+    <row r="10" s="1" customFormat="1" spans="1:6">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1338,7 +1341,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" s="4" customFormat="1" spans="1:6">
+    <row r="11" s="1" customFormat="1" spans="1:6">
       <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
@@ -1358,7 +1361,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" s="4" customFormat="1" spans="1:6">
+    <row r="12" s="1" customFormat="1" spans="1:6">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
@@ -1378,7 +1381,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" s="4" customFormat="1" spans="1:6">
+    <row r="13" s="1" customFormat="1" spans="1:6">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
@@ -1398,7 +1401,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" s="4" customFormat="1" spans="1:6">
+    <row r="14" s="1" customFormat="1" spans="1:6">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
@@ -1418,7 +1421,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" s="4" customFormat="1" spans="1:6">
+    <row r="15" s="1" customFormat="1" spans="1:6">
       <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
@@ -1438,7 +1441,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" s="4" customFormat="1" spans="1:6">
+    <row r="16" s="1" customFormat="1" spans="1:6">
       <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
@@ -1458,7 +1461,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" s="4" customFormat="1" spans="1:6">
+    <row r="17" s="1" customFormat="1" spans="1:6">
       <c r="A17" s="2" t="s">
         <v>8</v>
       </c>
@@ -1478,7 +1481,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" s="4" customFormat="1" spans="1:6">
+    <row r="18" s="1" customFormat="1" spans="1:6">
       <c r="A18" s="2" t="s">
         <v>8</v>
       </c>
@@ -1498,7 +1501,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" s="4" customFormat="1" spans="1:6">
+    <row r="19" s="1" customFormat="1" spans="1:6">
       <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
@@ -1518,7 +1521,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" s="4" customFormat="1" spans="1:6">
+    <row r="20" s="1" customFormat="1" spans="1:6">
       <c r="A20" s="2" t="s">
         <v>3</v>
       </c>
@@ -1538,7 +1541,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" s="4" customFormat="1" spans="1:6">
+    <row r="21" s="1" customFormat="1" spans="1:6">
       <c r="A21" s="2" t="s">
         <v>8</v>
       </c>
@@ -1558,7 +1561,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" s="4" customFormat="1" spans="1:6">
+    <row r="22" s="1" customFormat="1" spans="1:6">
       <c r="A22" s="2" t="s">
         <v>8</v>
       </c>
@@ -1578,7 +1581,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" s="4" customFormat="1" spans="1:6">
+    <row r="23" s="1" customFormat="1" spans="1:6">
       <c r="A23" s="2" t="s">
         <v>2</v>
       </c>
@@ -1598,7 +1601,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" s="4" customFormat="1" spans="1:6">
+    <row r="24" s="1" customFormat="1" spans="1:6">
       <c r="A24" s="2" t="s">
         <v>2</v>
       </c>
@@ -1618,7 +1621,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" s="4" customFormat="1" spans="1:6">
+    <row r="25" s="1" customFormat="1" spans="1:6">
       <c r="A25" s="2" t="s">
         <v>2</v>
       </c>
@@ -1638,7 +1641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" s="4" customFormat="1" spans="1:6">
+    <row r="26" s="1" customFormat="1" spans="1:6">
       <c r="A26" s="2" t="s">
         <v>2</v>
       </c>
@@ -1658,7 +1661,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" s="4" customFormat="1" spans="1:6">
+    <row r="27" s="1" customFormat="1" spans="1:6">
       <c r="A27" s="2" t="s">
         <v>2</v>
       </c>
@@ -1678,7 +1681,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" s="4" customFormat="1" spans="1:6">
+    <row r="28" s="1" customFormat="1" spans="1:6">
       <c r="A28" s="2" t="s">
         <v>2</v>
       </c>
@@ -1698,7 +1701,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" s="4" customFormat="1" spans="1:6">
+    <row r="29" s="1" customFormat="1" spans="1:6">
       <c r="A29" s="1" t="s">
         <v>3</v>
       </c>
@@ -1718,7 +1721,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" s="4" customFormat="1" spans="1:6">
+    <row r="30" s="1" customFormat="1" spans="1:6">
       <c r="A30" s="1" t="s">
         <v>3</v>
       </c>
@@ -1738,7 +1741,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" s="4" customFormat="1" spans="1:6">
+    <row r="31" s="1" customFormat="1" spans="1:6">
       <c r="A31" s="1" t="s">
         <v>3</v>
       </c>
@@ -1758,7 +1761,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" s="4" customFormat="1" spans="1:6">
+    <row r="32" s="1" customFormat="1" spans="1:6">
       <c r="A32" s="1" t="s">
         <v>3</v>
       </c>
@@ -1778,7 +1781,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" s="4" customFormat="1" spans="1:6">
+    <row r="33" s="1" customFormat="1" spans="1:6">
       <c r="A33" s="1" t="s">
         <v>3</v>
       </c>
@@ -1798,7 +1801,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" s="4" customFormat="1" spans="1:6">
+    <row r="34" s="1" customFormat="1" spans="1:6">
       <c r="A34" s="1" t="s">
         <v>3</v>
       </c>
@@ -1818,7 +1821,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" s="4" customFormat="1" spans="1:6">
+    <row r="35" s="1" customFormat="1" spans="1:6">
       <c r="A35" s="1" t="s">
         <v>3</v>
       </c>
@@ -1838,7 +1841,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" s="4" customFormat="1" spans="1:6">
+    <row r="36" s="1" customFormat="1" spans="1:6">
       <c r="A36" s="1" t="s">
         <v>3</v>
       </c>
@@ -1858,7 +1861,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" s="4" customFormat="1" spans="1:6">
+    <row r="37" s="1" customFormat="1" spans="1:6">
       <c r="A37" s="1" t="s">
         <v>3</v>
       </c>
@@ -1878,7 +1881,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" s="4" customFormat="1" spans="1:6">
+    <row r="38" s="1" customFormat="1" spans="1:6">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1898,7 +1901,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" s="4" customFormat="1" spans="1:6">
+    <row r="39" s="1" customFormat="1" spans="1:6">
       <c r="A39" s="1" t="s">
         <v>2</v>
       </c>
@@ -1918,7 +1921,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" s="4" customFormat="1" spans="1:6">
+    <row r="40" s="1" customFormat="1" spans="1:6">
       <c r="A40" s="1" t="s">
         <v>2</v>
       </c>
@@ -1938,7 +1941,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" s="4" customFormat="1" spans="1:6">
+    <row r="41" s="1" customFormat="1" spans="1:6">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -2664,7 +2667,7 @@
       <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2675,7 +2678,7 @@
       <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2692,7 +2695,7 @@
       <c r="D3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2719,15 +2722,15 @@
     <col min="4" max="4" width="15.3333333333333" customWidth="1"/>
     <col min="5" max="5" width="13.6666666666667" customWidth="1"/>
     <col min="6" max="6" width="15.2222222222222" customWidth="1"/>
-    <col min="7" max="7" width="20" style="4" customWidth="1"/>
+    <col min="7" max="7" width="20" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1"/>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1"/>
@@ -2735,13 +2738,13 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="1">
         <v>111</v>
       </c>
       <c r="D2" s="1"/>
@@ -2749,13 +2752,13 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="1">
         <v>444</v>
       </c>
       <c r="D3" s="1"/>
@@ -2763,13 +2766,13 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="1">
         <v>333</v>
       </c>
       <c r="D4" s="1"/>
@@ -2803,7 +2806,7 @@
       <c r="F6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="1" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2826,7 +2829,7 @@
       <c r="F7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2849,7 +2852,7 @@
       <c r="F8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2872,7 +2875,7 @@
       <c r="F9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2895,7 +2898,7 @@
       <c r="F10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2918,7 +2921,7 @@
       <c r="F11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2941,7 +2944,7 @@
       <c r="F12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2964,7 +2967,7 @@
       <c r="F13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2987,7 +2990,7 @@
       <c r="F14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="1">
         <v>3</v>
       </c>
     </row>
@@ -3010,7 +3013,7 @@
       <c r="F15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3033,7 +3036,7 @@
       <c r="F16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3056,7 +3059,7 @@
       <c r="F17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3079,7 +3082,7 @@
       <c r="F18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3102,7 +3105,7 @@
       <c r="F19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3125,7 +3128,7 @@
       <c r="F20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3148,7 +3151,7 @@
       <c r="F21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3171,7 +3174,7 @@
       <c r="F22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3194,7 +3197,7 @@
       <c r="F23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3217,7 +3220,7 @@
       <c r="F24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="1">
         <v>2</v>
       </c>
     </row>
@@ -3240,7 +3243,7 @@
       <c r="F25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3263,7 +3266,7 @@
       <c r="F26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3286,7 +3289,7 @@
       <c r="F27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3309,7 +3312,7 @@
       <c r="F28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="1">
         <v>2</v>
       </c>
     </row>
@@ -3332,7 +3335,7 @@
       <c r="F29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="1">
         <v>2</v>
       </c>
     </row>
@@ -3355,7 +3358,7 @@
       <c r="F30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3366,7 +3369,7 @@
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="4"/>
+      <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
@@ -3387,7 +3390,7 @@
       <c r="F32" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3410,7 +3413,7 @@
       <c r="F33" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3433,7 +3436,7 @@
       <c r="F34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3456,7 +3459,7 @@
       <c r="F35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3479,7 +3482,7 @@
       <c r="F36" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3502,7 +3505,7 @@
       <c r="F37" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3525,7 +3528,7 @@
       <c r="F38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="1">
         <v>2</v>
       </c>
     </row>
@@ -3548,7 +3551,7 @@
       <c r="F39" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3571,7 +3574,7 @@
       <c r="F40" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3594,7 +3597,7 @@
       <c r="F41" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G41" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3617,7 +3620,7 @@
       <c r="F42" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G42" s="1">
         <v>2</v>
       </c>
     </row>
@@ -3640,7 +3643,7 @@
       <c r="F43" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G43" s="1">
         <v>2</v>
       </c>
     </row>
@@ -3663,7 +3666,7 @@
       <c r="F44" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G44" s="4">
+      <c r="G44" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3694,7 +3697,7 @@
       <c r="F46" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G46" s="4">
+      <c r="G46" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3717,7 +3720,7 @@
       <c r="F47" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G47" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3740,7 +3743,7 @@
       <c r="F48" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G48" s="4">
+      <c r="G48" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3763,7 +3766,7 @@
       <c r="F49" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G49" s="4">
+      <c r="G49" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3786,7 +3789,7 @@
       <c r="F50" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G50" s="4">
+      <c r="G50" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3809,7 +3812,7 @@
       <c r="F51" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G51" s="4">
+      <c r="G51" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3832,7 +3835,7 @@
       <c r="F52" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G52" s="4">
+      <c r="G52" s="1">
         <v>2</v>
       </c>
     </row>
@@ -3855,7 +3858,7 @@
       <c r="F53" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G53" s="4">
+      <c r="G53" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3878,7 +3881,7 @@
       <c r="F54" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G54" s="4">
+      <c r="G54" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3901,7 +3904,7 @@
       <c r="F55" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G55" s="4">
+      <c r="G55" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3924,7 +3927,7 @@
       <c r="F56" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G56" s="4">
+      <c r="G56" s="1">
         <v>2</v>
       </c>
     </row>
@@ -3947,7 +3950,7 @@
       <c r="F57" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G57" s="4">
+      <c r="G57" s="1">
         <v>2</v>
       </c>
     </row>
@@ -3970,7 +3973,7 @@
       <c r="F58" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="4">
+      <c r="G58" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5341,22 +5344,22 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A22" sqref="$A22:$XFD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="2" width="16.4444444444444" customWidth="1"/>
     <col min="3" max="3" width="16.5555555555556" customWidth="1"/>
-    <col min="4" max="4" width="15.8888888888889" customWidth="1"/>
-    <col min="5" max="5" width="16.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="44.8888888888889" customWidth="1"/>
+    <col min="4" max="5" width="15.8888888888889" customWidth="1"/>
+    <col min="6" max="6" width="16.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="44.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
+    <row r="1" s="1" customFormat="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
@@ -5370,13 +5373,16 @@
         <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -5392,16 +5398,19 @@
       <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>8</v>
@@ -5412,37 +5421,43 @@
       <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
@@ -5452,11 +5467,14 @@
       <c r="E5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="F5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -5472,16 +5490,19 @@
       <c r="E6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="F6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>8</v>
@@ -5492,11 +5513,14 @@
       <c r="E7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="F7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -5510,18 +5534,21 @@
         <v>8</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>8</v>
@@ -5530,13 +5557,16 @@
         <v>8</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -5550,18 +5580,21 @@
         <v>8</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
@@ -5570,13 +5603,16 @@
         <v>8</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -5590,18 +5626,21 @@
         <v>9</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>8</v>
@@ -5610,18 +5649,21 @@
         <v>9</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
@@ -5630,9 +5672,334 @@
         <v>9</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>52</v>
       </c>
     </row>
@@ -5662,16 +6029,16 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>18</v>
@@ -5679,10 +6046,10 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -5691,24 +6058,24 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/01.doc/06.Test/用例需求分析3.xlsx
+++ b/01.doc/06.Test/用例需求分析3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="10067" firstSheet="2" activeTab="4"/>
+    <workbookView windowWidth="22943" windowHeight="10067" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="登录" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="总人数测试" sheetId="7" r:id="rId3"/>
     <sheet name="用户界面" sheetId="8" r:id="rId4"/>
     <sheet name="管理员查看订餐界面" sheetId="9" r:id="rId5"/>
-    <sheet name="生成订餐信息界面" sheetId="10" r:id="rId6"/>
+    <sheet name="备注测试" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78">
   <si>
     <t>用户名</t>
   </si>
@@ -141,30 +141,30 @@
     <t>订餐状态</t>
   </si>
   <si>
+    <t>备注</t>
+  </si>
+  <si>
     <t>退出登录</t>
   </si>
   <si>
     <t>已订餐</t>
   </si>
   <si>
+    <t>不可写备注</t>
+  </si>
+  <si>
     <t>订餐状态：已订餐</t>
   </si>
   <si>
     <t>√√</t>
   </si>
   <si>
-    <t>√√√</t>
-  </si>
-  <si>
-    <t>√√√√</t>
-  </si>
-  <si>
-    <t>√√√√√</t>
-  </si>
-  <si>
     <t>未订餐</t>
   </si>
   <si>
+    <t>可写备注</t>
+  </si>
+  <si>
     <t>无任何反应</t>
   </si>
   <si>
@@ -198,12 +198,6 @@
     <t>查看订餐情况</t>
   </si>
   <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>生成订餐信息</t>
-  </si>
-  <si>
     <t>今日打扫</t>
   </si>
   <si>
@@ -219,34 +213,46 @@
     <t>看到订餐情况，总人数以及备注内容（纳龙科技）</t>
   </si>
   <si>
-    <t>转到生成订餐信息界面</t>
-  </si>
-  <si>
     <t>转到今日打扫界面</t>
   </si>
   <si>
-    <t>跳转到今日订餐名单界面，显示今日订餐人员名单</t>
-  </si>
-  <si>
-    <t>订餐总人数</t>
-  </si>
-  <si>
-    <t>预计金额</t>
-  </si>
-  <si>
-    <t>返回</t>
-  </si>
-  <si>
-    <t>总数</t>
-  </si>
-  <si>
-    <t>20*总数</t>
-  </si>
-  <si>
-    <t>跳转到生成订餐信息界面时的默认界面</t>
-  </si>
-  <si>
-    <t>跳转到查看订餐信息界面</t>
+    <t>显示今日订餐人员名单</t>
+  </si>
+  <si>
+    <t>用户1备注界面</t>
+  </si>
+  <si>
+    <t>用户2备注界面</t>
+  </si>
+  <si>
+    <t>用户3备注界面</t>
+  </si>
+  <si>
+    <t>查看订餐界面（预期结果）</t>
+  </si>
+  <si>
+    <t>多辣</t>
+  </si>
+  <si>
+    <t>用户1的订餐记录，有备注内容</t>
+  </si>
+  <si>
+    <t>用户2的订餐记录，有备注内容</t>
+  </si>
+  <si>
+    <t>用户3的订餐记录，有备注内容</t>
+  </si>
+  <si>
+    <t>用户1和用户2的订餐记录，有备注内容</t>
+  </si>
+  <si>
+    <t>用户1和用户3的订餐记录，有备注内容</t>
+  </si>
+  <si>
+    <t>用户2和用户3的订餐记录，有备注内容</t>
+  </si>
+  <si>
+    <t>用户1、用户2和用户3的订餐记录，有备注内容</t>
   </si>
 </sst>
 </file>
@@ -254,10 +260,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -275,7 +281,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,23 +294,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,7 +311,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,8 +340,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,16 +371,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,37 +423,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -427,19 +433,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,19 +451,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,121 +499,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,7 +535,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,6 +624,32 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -636,35 +668,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -676,6 +679,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -698,23 +710,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -726,10 +732,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -738,137 +744,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -877,6 +883,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1200,10 +1209,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A30" sqref="$A30:$XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1682,14 +1691,14 @@
       </c>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:6">
-      <c r="A28" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" s="2">
-        <v>123456</v>
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="1">
+        <v>123</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>8</v>
@@ -1709,10 +1718,10 @@
         <v>123</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>8</v>
@@ -1726,7 +1735,7 @@
         <v>3</v>
       </c>
       <c r="B30" s="1">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>8</v>
@@ -1746,13 +1755,13 @@
         <v>3</v>
       </c>
       <c r="B31" s="1">
-        <v>123</v>
+        <v>1010</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>8</v>
@@ -1769,10 +1778,10 @@
         <v>111</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>8</v>
@@ -1789,10 +1798,10 @@
         <v>1010</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>8</v>
@@ -1809,7 +1818,7 @@
         <v>111</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>8</v>
@@ -1829,7 +1838,7 @@
         <v>1010</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>8</v>
@@ -1843,7 +1852,7 @@
     </row>
     <row r="36" s="1" customFormat="1" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B36" s="1">
         <v>111</v>
@@ -1852,7 +1861,7 @@
         <v>8</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>8</v>
@@ -1863,13 +1872,13 @@
     </row>
     <row r="37" s="1" customFormat="1" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B37" s="1">
-        <v>1010</v>
+        <v>111</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>8</v>
@@ -1892,7 +1901,7 @@
         <v>8</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>8</v>
@@ -1902,59 +1911,59 @@
       </c>
     </row>
     <row r="39" s="1" customFormat="1" spans="1:6">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="1">
-        <v>111</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" s="1" customFormat="1" spans="1:6">
-      <c r="A40" s="1" t="s">
+      <c r="B40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="1">
-        <v>111</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" s="1" customFormat="1" spans="1:6">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
+      <c r="B41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>8</v>
+        <v>8</v>
+      </c>
+      <c r="B42" s="1">
+        <v>123</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
@@ -1971,10 +1980,10 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>8</v>
+        <v>8</v>
+      </c>
+      <c r="B43" s="1">
+        <v>123</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>8</v>
@@ -1991,13 +2000,13 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B44" s="1">
-        <v>123</v>
+        <v>2</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>8</v>
@@ -2011,16 +2020,16 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B45" s="1">
-        <v>123</v>
+        <v>2</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>9</v>
@@ -2031,10 +2040,10 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>8</v>
+        <v>8</v>
+      </c>
+      <c r="B46" s="1">
+        <v>123</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>8</v>
@@ -2051,10 +2060,10 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>8</v>
+        <v>8</v>
+      </c>
+      <c r="B47" s="1">
+        <v>123</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>8</v>
@@ -2071,16 +2080,16 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48" s="1">
-        <v>123</v>
+        <v>3</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>9</v>
@@ -2091,13 +2100,13 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B49" s="1">
-        <v>123</v>
+        <v>3</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>8</v>
@@ -2111,10 +2120,10 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>8</v>
+        <v>8</v>
+      </c>
+      <c r="B50" s="1">
+        <v>101010</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>8</v>
@@ -2131,10 +2140,10 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>8</v>
+        <v>8</v>
+      </c>
+      <c r="B51" s="1">
+        <v>101010</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
@@ -2151,16 +2160,16 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B52" s="1">
-        <v>101010</v>
+        <v>3</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>9</v>
@@ -2171,13 +2180,13 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B53" s="1">
-        <v>101010</v>
+        <v>3</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>8</v>
@@ -2191,10 +2200,10 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>8</v>
+        <v>8</v>
+      </c>
+      <c r="B54" s="1">
+        <v>101010</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>8</v>
@@ -2211,10 +2220,10 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>8</v>
+        <v>8</v>
+      </c>
+      <c r="B55" s="1">
+        <v>101010</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>8</v>
@@ -2231,13 +2240,13 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B56" s="1">
-        <v>101010</v>
+        <v>123</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>8</v>
@@ -2246,18 +2255,18 @@
         <v>9</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B57" s="1">
-        <v>101010</v>
+        <v>2</v>
+      </c>
+      <c r="B57" s="2">
+        <v>123456</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>8</v>
@@ -2277,16 +2286,16 @@
         <v>123</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2297,10 +2306,10 @@
         <v>123456</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>9</v>
@@ -2320,7 +2329,7 @@
         <v>8</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>9</v>
@@ -2340,7 +2349,7 @@
         <v>8</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>9</v>
@@ -2350,14 +2359,14 @@
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="2" t="s">
-        <v>2</v>
+      <c r="A62" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B62" s="1">
         <v>123</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>8</v>
@@ -2370,17 +2379,17 @@
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B63" s="2">
-        <v>123456</v>
+      <c r="A63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="1">
+        <v>123</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>9</v>
@@ -2397,7 +2406,7 @@
         <v>123</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>8</v>
@@ -2414,7 +2423,7 @@
         <v>3</v>
       </c>
       <c r="B65" s="1">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>8</v>
@@ -2425,8 +2434,8 @@
       <c r="E65" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F65" s="2" t="s">
-        <v>11</v>
+      <c r="F65" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2434,13 +2443,13 @@
         <v>3</v>
       </c>
       <c r="B66" s="1">
-        <v>123</v>
+        <v>1010</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>9</v>
@@ -2457,16 +2466,16 @@
         <v>111</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F67" s="1" t="s">
-        <v>13</v>
+      <c r="F67" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2477,10 +2486,10 @@
         <v>1010</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>9</v>
@@ -2497,7 +2506,7 @@
         <v>111</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>8</v>
@@ -2517,7 +2526,7 @@
         <v>1010</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>8</v>
@@ -2531,7 +2540,7 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B71" s="1">
         <v>111</v>
@@ -2540,7 +2549,7 @@
         <v>8</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>9</v>
@@ -2551,13 +2560,13 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B72" s="1">
-        <v>1010</v>
+        <v>111</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>8</v>
@@ -2580,52 +2589,12 @@
         <v>8</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B74" s="1">
-        <v>111</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B75" s="1">
-        <v>111</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F75" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2640,7 +2609,7 @@
   <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -2710,7 +2679,7 @@
   <sheetPr/>
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -3986,22 +3955,22 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="14.2222222222222" style="1" customWidth="1"/>
-    <col min="2" max="5" width="14" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.8888888888889" style="1" customWidth="1"/>
-    <col min="7" max="7" width="64.3333333333333" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88888888888889" style="1"/>
+    <col min="2" max="6" width="14" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.8888888888889" style="1" customWidth="1"/>
+    <col min="8" max="8" width="64.3333333333333" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -4021,10 +3990,13 @@
         <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -4038,1300 +4010,850 @@
         <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="F7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="2" t="s">
+      <c r="F10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="2" t="s">
+      <c r="F13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="F14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="F16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="G17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6">
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="G20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="G22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="G23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="B27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="G27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="F29" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="G29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="G30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="2" t="s">
+      <c r="G32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="G34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G59" s="1" t="s">
+      <c r="G35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>57</v>
       </c>
     </row>
@@ -5344,165 +4866,146 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A22" sqref="$A22:$XFD22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="2" width="16.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="16.5555555555556" customWidth="1"/>
-    <col min="4" max="5" width="15.8888888888889" customWidth="1"/>
-    <col min="6" max="6" width="16.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="44.8888888888889" customWidth="1"/>
+    <col min="3" max="4" width="15.8888888888889" customWidth="1"/>
+    <col min="5" max="5" width="16.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="44.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:7">
+    <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="1" t="s">
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>8</v>
@@ -5513,14 +5016,11 @@
       <c r="E7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="F7" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -5528,257 +5028,224 @@
         <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="F8" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="1" t="s">
+    <row r="11" spans="1:6">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="1" t="s">
+    <row r="12" spans="1:6">
+      <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="1" t="s">
+    <row r="13" spans="1:6">
+      <c r="A13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="1" t="s">
+    <row r="14" spans="1:6">
+      <c r="A14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="1" t="s">
+    <row r="15" spans="1:6">
+      <c r="A15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="1" t="s">
+    <row r="16" customFormat="1" spans="1:6">
+      <c r="A16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+    <row r="17" customFormat="1" spans="1:6">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>8</v>
+      <c r="B17" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="F17" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>64</v>
+      <c r="B18" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>8</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>8</v>
+      <c r="B19" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>8</v>
@@ -5787,44 +5254,38 @@
         <v>9</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>8</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>64</v>
+      <c r="B20" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>8</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
@@ -5833,174 +5294,10 @@
         <v>9</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>52</v>
+        <v>8</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -6012,70 +5309,104 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" customWidth="1"/>
-    <col min="2" max="2" width="13.7777777777778" customWidth="1"/>
-    <col min="3" max="3" width="14.2222222222222" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="40.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="17.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="17.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="16.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="53.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2"/>
+      <c r="D2" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:5">
-      <c r="A2" s="1" t="s">
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="4" spans="3:4">
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/01.doc/06.Test/用例需求分析3.xlsx
+++ b/01.doc/06.Test/用例需求分析3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="10067" activeTab="1"/>
+    <workbookView windowWidth="16410" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="登录" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
   <si>
     <t>用户名</t>
   </si>
@@ -69,12 +69,6 @@
     <t>点击生成今日扫地工</t>
   </si>
   <si>
-    <t>第一个文本框</t>
-  </si>
-  <si>
-    <t>第二个文本框</t>
-  </si>
-  <si>
     <t>预期结果</t>
   </si>
   <si>
@@ -85,12 +79,6 @@
   </si>
   <si>
     <t>点击</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
   </si>
   <si>
     <t>a,b为今日打扫人员</t>
@@ -260,9 +248,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -288,91 +276,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -395,16 +298,47 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -423,6 +357,60 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -433,13 +421,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,13 +493,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,31 +535,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,19 +577,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,61 +589,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,18 +605,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -624,6 +612,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -644,11 +665,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -685,42 +704,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -732,10 +720,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -744,137 +732,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -883,9 +871,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1215,15 +1200,15 @@
       <selection activeCell="A30" sqref="$A30:$XFD30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="13.5555555555556" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5583333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.6666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5555555555556" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.4444444444444" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.2222222222222" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.5555555555556" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88888888888889" style="1"/>
+    <col min="3" max="3" width="13.5583333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.4416666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.225" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.5583333333333" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.89166666666667" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2607,23 +2592,21 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="19.8888888888889" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.4444444444444" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.4444444444444" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.4444444444444" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88888888888889" style="1"/>
+    <col min="1" max="1" width="19.8916666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.4416666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.89166666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -2633,39 +2616,27 @@
       <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2683,14 +2654,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="12.8888888888889" customWidth="1"/>
+    <col min="1" max="1" width="12.8916666666667" customWidth="1"/>
     <col min="2" max="2" width="14.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="13.2222222222222" customWidth="1"/>
+    <col min="3" max="3" width="13.225" customWidth="1"/>
     <col min="4" max="4" width="15.3333333333333" customWidth="1"/>
     <col min="5" max="5" width="13.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="15.2222222222222" customWidth="1"/>
+    <col min="6" max="6" width="15.225" customWidth="1"/>
     <col min="7" max="7" width="20" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2708,7 +2679,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -2722,10 +2693,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1">
         <v>444</v>
@@ -2736,10 +2707,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1">
         <v>333</v>
@@ -2758,25 +2729,25 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3961,39 +3932,39 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.2222222222222" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.225" style="1" customWidth="1"/>
     <col min="2" max="6" width="14" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.8888888888889" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.8916666666667" style="1" customWidth="1"/>
     <col min="8" max="8" width="64.3333333333333" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88888888888889" style="1"/>
+    <col min="9" max="16384" width="8.89166666666667" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -4010,21 +3981,21 @@
         <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
@@ -4036,16 +4007,16 @@
         <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4061,17 +4032,17 @@
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>47</v>
+      <c r="E4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4079,7 +4050,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>8</v>
@@ -4087,17 +4058,17 @@
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>47</v>
+      <c r="E5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4113,17 +4084,17 @@
       <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>47</v>
+      <c r="E6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4140,16 +4111,16 @@
         <v>8</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4166,47 +4137,47 @@
         <v>9</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
@@ -4218,21 +4189,21 @@
         <v>8</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>9</v>
@@ -4244,16 +4215,16 @@
         <v>9</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4269,17 +4240,17 @@
       <c r="D12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>47</v>
+      <c r="E12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4296,16 +4267,16 @@
         <v>8</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -4322,16 +4293,16 @@
         <v>9</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -4339,25 +4310,25 @@
         <v>9</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -4365,7 +4336,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
@@ -4374,16 +4345,16 @@
         <v>8</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -4391,7 +4362,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
@@ -4400,20 +4371,20 @@
         <v>9</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="18" spans="6:6">
-      <c r="F18" s="4"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
@@ -4431,14 +4402,14 @@
       <c r="E19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>47</v>
+      <c r="F19" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -4455,21 +4426,21 @@
         <v>8</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>8</v>
@@ -4481,16 +4452,16 @@
         <v>8</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -4506,17 +4477,17 @@
       <c r="D22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>47</v>
+      <c r="E22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -4524,7 +4495,7 @@
         <v>8</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>8</v>
@@ -4532,17 +4503,17 @@
       <c r="D23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>47</v>
+      <c r="E23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -4558,17 +4529,17 @@
       <c r="D24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>47</v>
+      <c r="E24" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -4585,16 +4556,16 @@
         <v>8</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -4611,21 +4582,21 @@
         <v>9</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>9</v>
@@ -4637,21 +4608,21 @@
         <v>8</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>9</v>
@@ -4663,21 +4634,21 @@
         <v>8</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>9</v>
@@ -4689,16 +4660,16 @@
         <v>9</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -4714,17 +4685,17 @@
       <c r="D30" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>47</v>
+      <c r="E30" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -4741,16 +4712,16 @@
         <v>8</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -4767,16 +4738,16 @@
         <v>9</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -4784,7 +4755,7 @@
         <v>9</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>8</v>
@@ -4793,16 +4764,16 @@
         <v>8</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -4810,7 +4781,7 @@
         <v>9</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
@@ -4819,16 +4790,16 @@
         <v>8</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -4836,7 +4807,7 @@
         <v>9</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
@@ -4845,16 +4816,16 @@
         <v>9</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -4872,32 +4843,32 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="2" width="16.4444444444444" customWidth="1"/>
-    <col min="3" max="4" width="15.8888888888889" customWidth="1"/>
+    <col min="1" max="2" width="16.4416666666667" customWidth="1"/>
+    <col min="3" max="4" width="15.8916666666667" customWidth="1"/>
     <col min="5" max="5" width="16.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="44.8888888888889" customWidth="1"/>
+    <col min="6" max="6" width="44.8916666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4917,7 +4888,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4925,7 +4896,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>8</v>
@@ -4937,7 +4908,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4957,7 +4928,7 @@
         <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4965,7 +4936,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
@@ -4977,7 +4948,7 @@
         <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4996,8 +4967,8 @@
       <c r="E6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>65</v>
+      <c r="F6" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5005,7 +4976,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>8</v>
@@ -5016,8 +4987,8 @@
       <c r="E7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>65</v>
+      <c r="F7" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5036,8 +5007,8 @@
       <c r="E8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>65</v>
+      <c r="F8" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5045,7 +5016,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
@@ -5056,8 +5027,8 @@
       <c r="E9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>65</v>
+      <c r="F9" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5077,7 +5048,7 @@
         <v>9</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5085,7 +5056,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>8</v>
@@ -5097,7 +5068,7 @@
         <v>9</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5117,7 +5088,7 @@
         <v>9</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5125,7 +5096,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
@@ -5137,7 +5108,7 @@
         <v>9</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5157,7 +5128,7 @@
         <v>9</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5165,7 +5136,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>8</v>
@@ -5177,7 +5148,7 @@
         <v>9</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:6">
@@ -5197,7 +5168,7 @@
         <v>9</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:6">
@@ -5205,7 +5176,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
@@ -5217,7 +5188,7 @@
         <v>9</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5236,8 +5207,8 @@
       <c r="E18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>65</v>
+      <c r="F18" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5245,7 +5216,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>8</v>
@@ -5256,8 +5227,8 @@
       <c r="E19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>65</v>
+      <c r="F19" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -5276,8 +5247,8 @@
       <c r="E20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>65</v>
+      <c r="F20" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5285,7 +5256,7 @@
         <v>9</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
@@ -5296,8 +5267,8 @@
       <c r="E21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>65</v>
+      <c r="F21" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -5315,98 +5286,97 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="17.1111111111111" customWidth="1"/>
+    <col min="1" max="1" width="17.1083333333333" customWidth="1"/>
     <col min="2" max="2" width="17.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="16.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="53.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="16.4416666666667" customWidth="1"/>
+    <col min="4" max="4" width="53.4416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2"/>
+        <v>66</v>
+      </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="3:4">
       <c r="C4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" t="s">
         <v>70</v>
-      </c>
-      <c r="B5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
